--- a/Excel Books/Module+1+Start(Vlookup).xlsx
+++ b/Excel Books/Module+1+Start(Vlookup).xlsx
@@ -53,6 +53,7 @@
     <definedName name="HTML_OS" hidden="1">0</definedName>
     <definedName name="HTML_PathFile" hidden="1">"C:\my documents\lever.htm"</definedName>
     <definedName name="HTML_Title" hidden="1">"leverage"</definedName>
+    <definedName name="menu">'VL Basics'!$F$1:$F$22</definedName>
     <definedName name="New" localSheetId="8" hidden="1">OFFSET([1]!Data.Top.Left,1,0)</definedName>
     <definedName name="New" hidden="1">OFFSET([1]!Data.Top.Left,1,0)</definedName>
     <definedName name="Ownership" localSheetId="8" hidden="1">OFFSET([1]!Data.Top.Left,1,0)</definedName>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6904" uniqueCount="1059">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6905" uniqueCount="1060">
   <si>
     <t>Keyboard Shortcuts</t>
   </si>
@@ -4040,6 +4041,9 @@
   </si>
   <si>
     <t>Petty Cash Office</t>
+  </si>
+  <si>
+    <t>Amrood Shake</t>
   </si>
 </sst>
 </file>
@@ -46789,10 +46793,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G21"/>
+  <dimension ref="B1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -46820,11 +46824,11 @@
     </row>
     <row r="2" spans="2:7" ht="23.25" customHeight="1" thickBot="1">
       <c r="B2" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="C2" s="137">
         <f>VLOOKUP(Vlookup_box,table_array,2,0)</f>
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="F2" s="136" t="s">
         <v>1000</v>
@@ -46959,7 +46963,7 @@
     </row>
     <row r="20" spans="6:7">
       <c r="F20" t="s">
-        <v>1015</v>
+        <v>1059</v>
       </c>
       <c r="G20">
         <v>90</v>
@@ -46967,13 +46971,26 @@
     </row>
     <row r="21" spans="6:7">
       <c r="F21" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G21">
         <v>90</v>
       </c>
     </row>
+    <row r="22" spans="6:7">
+      <c r="F22" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G22">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Caution" error="INvalid" sqref="B2">
+      <formula1>menu</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
